--- a/input/base_bcu.xlsx
+++ b/input/base_bcu.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/brooksd_who_int/Documents/Files/Diphtheria risk analysis/Analysis/base data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/brooksd_who_int/Documents/Documents/GitHub/diptheria_vaccination/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFDB8607-72C4-4733-AF79-72783B26F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{BFDB8607-72C4-4733-AF79-72783B26F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88189758-A1F0-44CA-AEE4-A53825984018}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4C363D6-3BB6-4E3C-AB27-3A8E9E1AF5CB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{F4C363D6-3BB6-4E3C-AB27-3A8E9E1AF5CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="71">
   <si>
     <t>AFG</t>
   </si>
@@ -111,6 +114,144 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Target Population </t>
+  </si>
+  <si>
+    <t>BCU target population</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2023 Dose Forecast </t>
+  </si>
+  <si>
+    <t>2024 Dose Forecast</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>&lt;5 years of age</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Central African Rep</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>&lt;1 year of age</t>
+  </si>
+  <si>
+    <t>Congo Brazzaville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                    -   </t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Guinea-Conakry</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>&lt;2 years of age</t>
+  </si>
+  <si>
+    <t>Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Td</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>DTP-HepB/Hib</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Nigeria_Extra</t>
+  </si>
+  <si>
+    <t>DTwP-HepB-Hib-IPV</t>
+  </si>
+  <si>
+    <t>Zanzibar</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>doses_2023</t>
+  </si>
+  <si>
+    <t>doses_2024</t>
   </si>
 </sst>
 </file>
@@ -165,8 +306,20 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4F0EC62B-CCB7-48A5-A024-4CC162E6AEBE}" name="Table1" displayName="Table1" ref="A1:D40" totalsRowShown="0">
+  <autoFilter ref="A1:D40" xr:uid="{4F0EC62B-CCB7-48A5-A024-4CC162E6AEBE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D40">
+    <sortCondition ref="B1:B40"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6B28AE13-6456-45D0-8A18-69A46D2780C6}" name="country"/>
+    <tableColumn id="2" xr3:uid="{FA15E444-7C79-42FB-9EF3-9F8FC8F2E198}" name="product"/>
+    <tableColumn id="3" xr3:uid="{94F13A22-9A4C-4B10-8DBF-C503D011DD29}" name="doses_2023"/>
+    <tableColumn id="4" xr3:uid="{DE82E1EA-E885-4582-9B3E-A34F12FFD83C}" name="doses_2024"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBACAE8-5A58-42CB-B56B-3AE08644A5CD}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -669,4 +822,1168 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E5F2C0-20C4-43EF-AF92-6831E075CB56}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>223260</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>471327</v>
+      </c>
+      <c r="E2">
+        <v>471327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>777331</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>1698420</v>
+      </c>
+      <c r="E3">
+        <v>998822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>382175</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>382175</v>
+      </c>
+      <c r="E4">
+        <v>837247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>244349</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>825300</v>
+      </c>
+      <c r="E5">
+        <v>455098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>45557</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>119408</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7">
+        <v>7570000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7">
+        <v>13246946</v>
+      </c>
+      <c r="E7">
+        <v>13246946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>6700731</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>17986173</v>
+      </c>
+      <c r="E8">
+        <v>5970681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>84545</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>268555</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>617773</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>988437</v>
+      </c>
+      <c r="E10">
+        <v>334000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11">
+        <v>22491</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>76470</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>1201846</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>763526</v>
+      </c>
+      <c r="E12">
+        <v>1291100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>102834</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>263941</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>742802</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>2036716</v>
+      </c>
+      <c r="E14">
+        <v>2036716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>905722</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>2717166</v>
+      </c>
+      <c r="E15">
+        <v>1894362</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16">
+        <v>278506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>904992</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>2413312</v>
+      </c>
+      <c r="E17">
+        <v>2413312</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18">
+        <v>10681338</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>20056758</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>317621</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>401206</v>
+      </c>
+      <c r="E19">
+        <v>871846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20">
+        <v>5915</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>9054</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21">
+        <v>840000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>3150000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>530874</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>1592622</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23">
+        <v>2542284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24">
+        <v>1455290</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>4850967</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25">
+        <v>346995</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>580948</v>
+      </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26">
+        <v>340000</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26">
+        <v>1041474</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58FBE5E5-A659-44E8-A33A-BA59B181B18C}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>471327</v>
+      </c>
+      <c r="D2">
+        <v>471327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>1698420</v>
+      </c>
+      <c r="D3">
+        <v>998822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4">
+        <v>382175</v>
+      </c>
+      <c r="D4">
+        <v>837247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>825300</v>
+      </c>
+      <c r="D5">
+        <v>455098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>15930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>119408</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8">
+        <v>13246946</v>
+      </c>
+      <c r="D8">
+        <v>13246948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9">
+        <v>17986173</v>
+      </c>
+      <c r="D9">
+        <v>5970681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>268555</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>988437</v>
+      </c>
+      <c r="D11">
+        <v>334000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>76470</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>763526</v>
+      </c>
+      <c r="D13">
+        <v>1291100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14">
+        <v>263941</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15">
+        <v>2036716</v>
+      </c>
+      <c r="D15">
+        <v>2036716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>2717166</v>
+      </c>
+      <c r="D16">
+        <v>1894362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>278506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>2413312</v>
+      </c>
+      <c r="D18">
+        <v>2413312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>20056758</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>401206</v>
+      </c>
+      <c r="D21">
+        <v>871846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22">
+        <v>9054</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
+        <v>1592622</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2542284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25">
+        <v>4850967</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26">
+        <v>580948</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <v>1041474</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29">
+        <v>3150000</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1475114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>20000</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>84028</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <v>92055</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34">
+        <v>823698</v>
+      </c>
+      <c r="D34">
+        <v>160883</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35">
+        <v>49248</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>3895</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38">
+        <v>124940</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39">
+        <v>380694</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1194CD-08CF-4DD8-9E21-544150097DC9}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>